--- a/biology/Zoologie/Charaxes_brutus/Charaxes_brutus.xlsx
+++ b/biology/Zoologie/Charaxes_brutus/Charaxes_brutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes brutus est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes brutus a été nommé par Pieter Cramer en 1779.
-Synonyme : Papilio brutus Cramer, [1779][1];
-Noms vernaculaires
-Il se nomme White Barred Charaxes en anglais[1].
-Sous-espèces
-Les sous-espèces suivantes sont reconnues:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes brutus a été nommé par Pieter Cramer en 1779.
+Synonyme : Papilio brutus Cramer, ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme White Barred Charaxes en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les sous-espèces suivantes sont reconnues:
 Charaxes brutus brutus (Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, ouest du Nigeria)
 Charaxes brutus alcyone (côtes du Kenya et Tanzanie)
 Charaxes brutus angustus (Est du Nigeria, Cameroun, République centrafricaine, Gabon, Congo, nord de l'Angola, au Zaïre, ouest de l'Ouganda)
@@ -527,72 +611,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_brutus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon marron barré d'une bande blanche qui ressemble au Charaxes antiquus tout en étant un peu plus grand et ayant des queues plus fines. La bande discale n'est pas blanc-cassé mais blanche, plus rectiligne que chez Charaxes antiquus et l'aile antérieure de brutus est moins effilée et galbée. 
-Le revers est chatoyant de taches sur un fond rouge orangé.
-Il a une envergure de 60 à 75 mm chez les mâles et 75 à 90 mm chez les femelles[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Charaxes_brutus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole tout au long de l'année.
-Plantes hôtes
-Les chenilles se nourrissent sur les espèces de Grewia, Entandrophagma delevoi, Trichilia dregeana, Blighia unifugata, Melai azedarach, Trichilia emetica et Ekebergia capensis[2],[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -614,15 +632,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon marron barré d'une bande blanche qui ressemble au Charaxes antiquus tout en étant un peu plus grand et ayant des queues plus fines. La bande discale n'est pas blanc-cassé mais blanche, plus rectiligne que chez Charaxes antiquus et l'aile antérieure de brutus est moins effilée et galbée. 
+Le revers est chatoyant de taches sur un fond rouge orangé.
+Il a une envergure de 60 à 75 mm chez les mâles et 75 à 90 mm chez les femelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole tout au long de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent sur les espèces de Grewia, Entandrophagma delevoi, Trichilia dregeana, Blighia unifugata, Melai azedarach, Trichilia emetica et Ekebergia capensis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent dans tout le sud de l'Afrique en Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, République centrafricaine, Gabon, Congo, nord de l'Angola, au Zaïre, ouest de l'Ouganda, Afrique du Sud, Zimbabwe, Botswana, Mozambique, Malawi, Tanzanie et dans l'île de Pemba.
-Biotope
-Il réside dans les zones où poussent les arbres qui sont les plantes hôtes de ses chenilles.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans tout le sud de l'Afrique en Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, République centrafricaine, Gabon, Congo, nord de l'Angola, au Zaïre, ouest de l'Ouganda, Afrique du Sud, Zimbabwe, Botswana, Mozambique, Malawi, Tanzanie et dans l'île de Pemba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_brutus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones où poussent les arbres qui sont les plantes hôtes de ses chenilles.
+</t>
         </is>
       </c>
     </row>
